--- a/plate_layouts/220616_CRISPRa_fans.xlsx
+++ b/plate_layouts/220616_CRISPRa_fans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\plate_layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396675A-4BB1-4AC4-906D-7469096E2ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED93F994-D689-41D9-BAFD-4DB970AB28C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>A</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>2p_half_B_neg</t>
-  </si>
-  <si>
-    <t>3p_eq_B_pos</t>
   </si>
   <si>
     <t>3p_eq_B_neg</t>
@@ -429,7 +426,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="B7" sqref="B7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -476,100 +473,97 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/plate_layouts/220616_CRISPRa_fans.xlsx
+++ b/plate_layouts/220616_CRISPRa_fans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\plate_layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED93F994-D689-41D9-BAFD-4DB970AB28C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548FAF81-3B40-4391-B78A-628CF47CB7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>A</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>3p_third_B_neg</t>
+  </si>
+  <si>
+    <t>3p_eq_B_pos</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -556,6 +559,9 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
